--- a/data/junction_detection_result/K_1_UNET.xlsx
+++ b/data/junction_detection_result/K_1_UNET.xlsx
@@ -109,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +121,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -137,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -160,33 +168,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,13 +500,13 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -553,36 +561,45 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>0.76</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>0.76</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>0.76</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>0.72727272727272729</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
         <v>0.5714285714285714</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>0.76923076923076916</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>0.7142857142857143</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -590,31 +607,31 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>0.68421052631578949</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>0.68421052631578949</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>0.68421052631578949</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>0.76923076923076916</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>0.7142857142857143</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>0.64</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>0.61538461538461542</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -622,31 +639,31 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>0.79245283018867929</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>0.75</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>0.84</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
         <v>0.71794871794871795</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -654,31 +671,31 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>0.7865168539325843</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>0.77777777777777779</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>0.79545454545454541</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>0.87999999999999989</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>0.91666666666666663</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>0.84615384615384615</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>0.75000000000000011</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>0.72727272727272729</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>0.77419354838709675</v>
       </c>
     </row>
@@ -686,31 +703,31 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>0.64</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>0.61538461538461542</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>0.76190476190476197</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0.88888888888888884</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>0.59259259259259256</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>0.53333333333333333</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -718,31 +735,31 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>0.70000000000000007</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>0.875</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="4">
         <v>0.81578947368421062</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>0.77500000000000002</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>0.86111111111111116</v>
       </c>
     </row>
@@ -750,31 +767,31 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>0.75862068965517238</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>0.76744186046511631</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>0.75</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>0.76923076923076916</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0.90909090909090906</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>0.75409836065573776</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>0.71875</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>0.7931034482758621</v>
       </c>
     </row>
@@ -782,31 +799,31 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>0.72289156626506035</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>0.73170731707317072</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>0.7142857142857143</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>0.74999999999999989</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
         <v>0.6</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>0.71186440677966101</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>0.65625</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -814,31 +831,31 @@
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>0.76470588235294124</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>0.76470588235294112</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>0.76470588235294112</v>
       </c>
-      <c r="E12">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="E12" s="7">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="4">
         <v>0.75</v>
       </c>
-      <c r="H12">
-        <v>0.72340425531914909</v>
-      </c>
-      <c r="I12">
-        <v>0.68</v>
-      </c>
-      <c r="J12">
+      <c r="H12" s="4">
+        <v>0.73913043478260876</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J12" s="4">
         <v>0.77272727272727271</v>
       </c>
     </row>
@@ -846,31 +863,31 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>0.77611940298507476</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>0.74285714285714288</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>0.8125</v>
       </c>
-      <c r="E13">
-        <v>0.76923076923076916</v>
-      </c>
-      <c r="F13">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G13">
+      <c r="E13" s="7">
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="G13" s="4">
         <v>0.7142857142857143</v>
       </c>
-      <c r="H13">
-        <v>0.78048780487804881</v>
-      </c>
-      <c r="I13">
-        <v>0.69565217391304346</v>
-      </c>
-      <c r="J13">
+      <c r="H13" s="4">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="J13" s="4">
         <v>0.88888888888888884</v>
       </c>
     </row>
@@ -878,31 +895,31 @@
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>0.7466666666666667</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>0.68292682926829273</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>0.82352941176470584</v>
       </c>
-      <c r="E14">
-        <v>0.92307692307692302</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="E14" s="7">
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G14" s="4">
         <v>0.8571428571428571</v>
       </c>
-      <c r="H14">
-        <v>0.65306122448979587</v>
-      </c>
-      <c r="I14">
-        <v>0.55172413793103448</v>
-      </c>
-      <c r="J14">
+      <c r="H14" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J14" s="4">
         <v>0.8</v>
       </c>
     </row>
@@ -910,31 +927,31 @@
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>0.68571428571428572</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>0.64864864864864868</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>0.72727272727272729</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
+        <v>0.74074074074074081</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G15" s="4">
         <v>0.76923076923076927</v>
       </c>
-      <c r="F15">
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="G15">
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="H15">
-        <v>0.63636363636363646</v>
-      </c>
-      <c r="I15">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="J15">
+      <c r="H15" s="4">
+        <v>0.65116279069767435</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="J15" s="4">
         <v>0.7</v>
       </c>
     </row>
@@ -942,31 +959,31 @@
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>0.75862068965517238</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>0.70967741935483875</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>0.81481481481481477</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>0.8</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
         <v>0.68421052631578949</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>0.68421052631578949</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="4">
         <v>0.68421052631578949</v>
       </c>
     </row>
@@ -974,31 +991,31 @@
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>0.70370370370370372</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>0.70370370370370372</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>0.70370370370370372</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>0.94736842105263164</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
         <v>0.9</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>0.57142857142857151</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>0.55555555555555558</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="4">
         <v>0.58823529411764708</v>
       </c>
     </row>
@@ -1006,31 +1023,31 @@
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>0.90909090909090906</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>0.88235294117647056</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>0.9375</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
         <v>0.86363636363636365</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <v>0.82608695652173914</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>0.90476190476190477</v>
       </c>
     </row>
@@ -1038,31 +1055,31 @@
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>0.78260869565217384</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>0.75</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>0.81818181818181823</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>0.84615384615384603</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>0.73333333333333328</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
         <v>0.69767441860465118</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>0.7142857142857143</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>0.68181818181818177</v>
       </c>
     </row>
@@ -1070,31 +1087,31 @@
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>0.83999999999999986</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>0.84</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>0.84</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>0.93333333333333335</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>0.875</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
         <v>0.79999999999999993</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <v>0.82352941176470584</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="4">
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -1102,31 +1119,31 @@
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>0.75862068965517238</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>0.6875</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>0.84615384615384615</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>0.95652173913043481</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>0.91666666666666663</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
         <v>0.59459459459459463</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>0.6470588235294118</v>
       </c>
     </row>
@@ -1134,31 +1151,31 @@
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>0.90322580645161288</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>0.90322580645161288</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>0.90322580645161288</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
         <v>0.8571428571428571</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <v>0.8571428571428571</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="4">
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -1166,71 +1183,71 @@
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>0.77777777777777779</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>0.77777777777777779</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>0.77777777777777779</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="7">
         <v>0.82352941176470595</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>0.77777777777777779</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>0.875</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="4">
         <v>0.70270270270270274</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <v>0.72222222222222221</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="4">
         <v>0.68421052631578949</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="5">
         <f>AVERAGE(B4:B23)</f>
         <v>0.76716068213647215</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <f t="shared" ref="C24:J24" si="0">AVERAGE(C4:C23)</f>
         <v>0.74857824576372833</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <f t="shared" si="0"/>
         <v>0.7885824953931666</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <f t="shared" si="0"/>
-        <v>0.84916135488776501</v>
-      </c>
-      <c r="F24">
+        <v>0.84265489838130869</v>
+      </c>
+      <c r="F24" s="4">
         <f t="shared" si="0"/>
-        <v>0.89974941724941737</v>
-      </c>
-      <c r="G24">
+        <v>0.88495088245088238</v>
+      </c>
+      <c r="G24" s="4">
         <f t="shared" si="0"/>
         <v>0.82570970695970691</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <f t="shared" si="0"/>
-        <v>0.7158115638183925</v>
-      </c>
-      <c r="I24">
+        <v>0.71899371237320842</v>
+      </c>
+      <c r="I24" s="4">
         <f t="shared" si="0"/>
-        <v>0.68253429729645254</v>
-      </c>
-      <c r="J24">
+        <v>0.68778532924800928</v>
+      </c>
+      <c r="J24" s="4">
         <f t="shared" si="0"/>
         <v>0.75687311916959066</v>
       </c>
@@ -1242,5 +1259,6 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>